--- a/Frequency_Analysis/Results_GLM.xlsx
+++ b/Frequency_Analysis/Results_GLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MathijsGerits/Documents/School/Semester 2/Datascience for non-life insurance/AA_ASSIGNMENT/Assignment-nonLife-insurance/Frequency_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786A1AA-85D3-0A48-8273-5BD5F0C3577E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF6E412-47D7-674E-B707-615EB5CEFFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B76031F1-76D7-E14A-BB77-30EE68A3E8B6}"/>
   </bookViews>
@@ -158,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,16 +299,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -619,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F911181-D43B-C441-A104-F7DB20A40242}">
   <dimension ref="B2:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,10 +737,10 @@
       <c r="I6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -762,10 +768,10 @@
       <c r="I7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="23">
         <v>0</v>
       </c>
     </row>
@@ -795,10 +801,10 @@
       <c r="I8" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="23">
         <v>1E-3</v>
       </c>
     </row>
@@ -828,10 +834,10 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="23">
         <v>0.01</v>
       </c>
     </row>
@@ -861,10 +867,10 @@
       <c r="I10" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="23">
         <v>0.1</v>
       </c>
     </row>
@@ -892,10 +898,10 @@
       <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="25">
         <v>1</v>
       </c>
     </row>
